--- a/biology/Médecine/Présentation_d'antigène/Présentation_d'antigène.xlsx
+++ b/biology/Médecine/Présentation_d'antigène/Présentation_d'antigène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pr%C3%A9sentation_d%27antig%C3%A8ne</t>
+          <t>Présentation_d'antigène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La présentation d'antigène est un processus du système immunitaire d'un organisme par lequel les macrophages, les cellules dendritiques et d'autres types de cellules capturent des antigènes, puis activent leur reconnaissance par les lymphocytes T.
 La base de l'immunité adaptative réside dans la capacité des cellules du système immunitaire de distinguer entre les propres cellules du corps et les agents pathogènes infectieux.
